--- a/src/test/resources/testdata/features/account/account_creation.xlsx
+++ b/src/test/resources/testdata/features/account/account_creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmiraflores\IdeaProjects\T24Automation\src\test\resources\testdata\features\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61BE28F-3398-4B2C-8564-1191A3888EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5725CD-BD23-47E3-AD7B-38A93FC76038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAC450F8-99EA-46B5-9C73-10B5D244387C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="28">
   <si>
     <t>currency</t>
   </si>
@@ -107,66 +107,6 @@
     <t>Account Creation</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>customerRole</t>
   </si>
   <si>
@@ -174,6 +114,12 @@
   </si>
   <si>
     <t>191615</t>
+  </si>
+  <si>
+    <t>KRW</t>
+  </si>
+  <si>
+    <t>No Customer</t>
   </si>
 </sst>
 </file>
@@ -217,8 +163,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -535,364 +483,325 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D529F2F9-1A51-49E1-B2EF-05B8D0561695}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/test/resources/testdata/features/account/account_creation.xlsx
+++ b/src/test/resources/testdata/features/account/account_creation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmiraflores\IdeaProjects\T24Automation\src\test\resources\testdata\features\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5725CD-BD23-47E3-AD7B-38A93FC76038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EAE82D-F065-4DCA-8F24-48006664D923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAC450F8-99EA-46B5-9C73-10B5D244387C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EAC450F8-99EA-46B5-9C73-10B5D244387C}"/>
   </bookViews>
   <sheets>
     <sheet name="account_creation" sheetId="1" r:id="rId1"/>
@@ -486,7 +486,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
